--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Version</t>
   </si>
@@ -40,6 +40,11 @@
   </si>
   <si>
     <t xml:space="preserve"> Fix bug: App always start at statistic screen &amp; wrong screen after logout</t>
+  </si>
+  <si>
+    <t>Change profile picture
+Update user info
+Log out</t>
   </si>
 </sst>
 </file>
@@ -47,7 +52,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mmm/yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -132,37 +137,46 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -446,62 +460,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="88.7109375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="88.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="12">
         <v>43641</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>43647</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Version</t>
   </si>
@@ -45,6 +45,9 @@
     <t>Change profile picture
 Update user info
 Log out</t>
+  </si>
+  <si>
+    <t>Improve code</t>
   </si>
 </sst>
 </file>
@@ -160,22 +163,22 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,20 +479,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="10" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -499,10 +502,10 @@
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="9">
         <v>43641</v>
       </c>
       <c r="B3" s="1">
@@ -514,12 +517,12 @@
       <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="9">
         <v>43647</v>
       </c>
       <c r="B4" s="1">
@@ -531,8 +534,25 @@
       <c r="D4" s="3">
         <v>3</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="11" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>43648</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Version</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Improve code</t>
+  </si>
+  <si>
+    <t>Adding field on detail screen, improve code</t>
   </si>
 </sst>
 </file>
@@ -463,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -555,6 +558,23 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>43653</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
